--- a/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -20,17 +20,13 @@
   </si>
   <si>
     <t xml:space="preserve">The crew is bubbling with enthusiasm about a local endurance competition.
- In the morning briefing, Darius says, "[[TGT_MW,{TGT_MW.Callsign}]] has requested permission to compete. Given the general interest, I'd like you to make the call."
- Sumire says, "Let {TGT_MW.Obj} go. It'll be entertaining."
----
-The crew is bubbling with enthusiasm about a local endurance competition.
 In the morning briefing, Darius says, "[[TGT_MW,{TGT_MW.Callsign}]] has requested permission to compete. Given the general interest, I'd like you to make the call."
 Sumire says, "Let {TGT_MW.Obj} go. It'll be entertaining."</t>
   </si>
   <si>
     <t xml:space="preserve">Экипаж полон энтузиазма по поводу местных соревнований на выносливость.
- На утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»
- Сумирэ говорит: «Отпусти {TGT_MW.Obj}. Это будет забавно.»</t>
+На утреннем брифинге Дариус говорит: «[[TGT_MW,{TGT_MW.Callsign}]] запросил разрешение на участие в соревнованиях. Учитывая общий интерес, я бы хотел, чтобы вы приняли решение.»
+Сумирэ говорит: «Отпусти {TGT_MW.Obj}. Это будет забавно.»</t>
   </si>
   <si>
     <t>event_mw_endurance_race.Description.Name</t>
@@ -64,17 +60,13 @@
   </si>
   <si>
     <t xml:space="preserve">Darius nods and the briefing continues to other topics.
- While some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.
- Except, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been.
----
-Darius nods and the briefing continues to other topics.
 While some of the crew initially expresses discontent, the immediacy of the work at hand soon drowns out any thoughts of surface sports.
 Except, that is, for [[TGT_MW,{TGT_MW.Callsign}]] who takes a few more days to shake off the thoughts of what might have been.</t>
   </si>
   <si>
     <t xml:space="preserve">Дариус кивает, и брифинг переходит к другим темам.
-  Хотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.
-  За исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть.</t>
+Хотя часть экипажа изначально выражает недовольство, непосредственность предстоящей работы вскоре заглушает любые мысли о наземных видах спорта.
+За исключением, конечно, [[TGT_MW,{TGT_MW.Callsign}]], которому требуется еще несколько дней, чтобы избавиться от мыслей о том, что могло бы быть.</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_0_0.Options0.0.Name</t>
@@ -108,14 +100,11 @@
   </si>
   <si>
     <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.
- "Commander, thanks for letting me participate in the endurance competition!" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. "I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."
----
-[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You see {TGT_MW.Obj} in the mess hall, regaling listeners with tales of the race.
 "Commander, thanks for letting me participate in the endurance competition!" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. "I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."</t>
   </si>
   <si>
     <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите {TGT_MW.Obj} в столовой, потчующего слушателей рассказами о гонке.
-  «Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} с энтузиазмом. «Я не выиграл, но хотя бы выступил неплохо. Эти местные жители, вау, у них бесконечная выносливость! Мы держались на равных какое-то время, но потом я отстал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} с энтузиазмом. «Я не выиграл, но хотя бы выступил неплохо. Эти местные жители, вау, у них бесконечная выносливость! Мы держались на равных какое-то время, но потом я отстал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
@@ -131,17 +120,13 @@
   </si>
   <si>
     <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.
- "Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit," {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.
- "Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."
----
-[[TGT_MW,{TGT_MW.Callsign}]] returns to the &lt;i&gt;Argo&lt;/i&gt; later that week. You find {TGT_MW.Obj} in the mess hall, one arm in a cast, regaling listeners with tales of daring-do.
 "Commander, thanks for letting me participate in the endurance competition, but I, uh, may have over-reached a little bit," {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, holding up the broken limb.
 "Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."</t>
   </si>
   <si>
     <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы находите {TGT_MW.Obj} в столовой, с рукой в гипсе, угощающего слушателей рассказами о дерзких поступках.
- «Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, поддерживая сломанную конечность.
- «Эти местные жители,- ух! - у них бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге я устал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, поддерживая сломанную конечность.
+«Эти местные жители,- ух! - у них бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге я устал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
@@ -157,20 +142,15 @@
   </si>
   <si>
     <t xml:space="preserve">Even before you arrive at the morning briefing, you can hear Dr. Murad praising [[TGT_MW,{TGT_MW.Callsign}]], saying how valuable their support has been to the engineering team.
- Yang chimes in. "Yeah, and then {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:} showed up in the Mech Bay. It only took a few minutes for {TGT_MW.Callsign} to figure out what was wrong with one of my winches."
- Sumire smiles. "Well, send {TGT_MW.Callsign} to the bridge, Chief. I could use the help!"
- Finally, Darius notices you standing in the doorway and explains. "Commander, we have to do something special for {TGT_MW.Callsign}. {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:'s} the most helpful member on the ship!"
----
-Even before you arrive at the morning briefing, you can hear Dr. Murad praising [[TGT_MW,{TGT_MW.Callsign}]], saying how valuable their support has been to the engineering team.
 Yang chimes in. "Yeah, and then {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:} showed up in the Mech Bay. It only took a few minutes for {TGT_MW.Callsign} to figure out what was wrong with one of my winches."
 Sumire smiles. "Well, send {TGT_MW.Callsign} to the bridge, Chief. I could use the help!"
 Finally, Darius notices you standing in the doorway and explains. "Commander, we have to do something special for {TGT_MW.Callsign}. {TGT_MW.Subj_C}{TGT_MW.Gender?NonBinary:'re|Default:'s} the most helpful member on the ship!"</t>
   </si>
   <si>
     <t xml:space="preserve">При подходе на утренний брифинг, вы можете услышать, как доктор Мурад хвалит [[TGT_MW, {TGT_MW.Callsign}]], говоря, насколько ценна была поддержка для команды инженеров.
- И тут вмешивается Ян: «Да, а потом {TGT_MW.Subj_C} {TGT_MW.Gender? NonBinary: 're | Default:} появился в мехбее. {TGT_MW.Callsign} потребовалось всего несколько минут, чтобы выяснить, что случилось с одной из моих лебедок.»
- Сумире улыбается: «Что ж, пошлите {TGT_MW.Callsign} на мостик, шеф. Мне бы не помешала помощь!»
- Наконец, Дариус замечает, что вы стоите в дверном проеме, и объясняет: «Командир, мы должны сделать что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Subj_C}. {TGT_MW.Subj_C}» {TGT_MW.Gender? NonBinary: 're | Default:' s} самый полезный участник на корабле!»</t>
+И тут вмешивается Ян: «Да, а потом {TGT_MW.Subj_C} {TGT_MW.Gender? NonBinary: 're | Default:} появился в мехбее. {TGT_MW.Callsign} потребовалось всего несколько минут, чтобы выяснить, что случилось с одной из моих лебедок.»
+Сумире улыбается: «Что ж, пошлите {TGT_MW.Callsign} на мостик, шеф. Мне бы не помешала помощь!»
+Наконец, Дариус замечает, что вы стоите в дверном проеме, и объясняет: «Командир, мы должны сделать что-то особенное для {TGT_MW.Callsign}. {TGT_MW.Subj_C}. {TGT_MW.Subj_C}» {TGT_MW.Gender? NonBinary: 're | Default:' s} самый полезный участник на корабле!»</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.Description.Name</t>
@@ -204,17 +184,13 @@
   </si>
   <si>
     <t xml:space="preserve">Later in the week, Darius delivers an update on the situation.
- Relocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.
- "Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey."
----
-Later in the week, Darius delivers an update on the situation.
 Relocating [[TGT_MW,{TGT_MW.Callsign}]] near the officers area has not only kept {TGT_MW.OBJ} more involved with the crew, it's also given the lucky MechWarrior the solitude {TGT_MW.SUBJ} craved.
 "Commander, I don't know if you've went to visit, but it's kind of impressive what {TGT_MW.CALLSIGN} has managed to do with the space. It's almost… homey."</t>
   </si>
   <si>
     <t xml:space="preserve">Позже на этой неделе Дариус сообщает обновленную информацию о ситуации.
- Перемещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.
- «Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему».</t>
+Перемещение [[TGT_MW, {TGT_MW.Callsign}]] рядом с местом для офицеров не только помогло {TGT_MW.OBJ} более тесно взаимодействовать с командой, но и дало счастливому мехвоину уединение, которого так жаждал {TGT_MW.SUBJ}.
+«Командир, я не знаю, были ли вы в гостях, но то, что {TGT_MW.CALLSIGN} удалось сделать с этим пространством, впечатляет. Это почти… по-домашнему».</t>
   </si>
   <si>
     <t>event_mw_goodDeeds_disgraced.outcome_0_0.Options0.0.Name</t>
@@ -386,17 +362,13 @@
   </si>
   <si>
     <t xml:space="preserve">While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.
- "Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield." {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.
- "Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. "My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?"
----
-While browsing in the &lt;i&gt;Argo&lt;/i&gt;'s library, you find [[TGT_MW,{TGT_MW.Callsign}]] with a pile of printed materials, Holovid chips, and datapads.
 "Commander, I'm… well, I'm a bit lost, actually. I have been here a while, and I'd like to make improvements on the battlefield." {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} at the pile.
 "Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. "My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?"</t>
   </si>
   <si>
     <t xml:space="preserve">Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW, {TGT_MW.Callsign}]] с кучей печатных материалов, чипами головида и датападами.
- «Командир, я... Ну, вообще-то я немного заблудился. Я здесь уже некоторое время, и я хотел бы внести улучшения на поле боя.» - {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} у кучи.
- «Может быть, если бы я мог сделать что-то больше, чем просто нажимать на гашетку моего LRM, я мог бы больше убить. Я, э-э...» - {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. «Мои родители зависят от денег, которые я им посылаю, и я знаю, что смогу добиться большего успеха и, возможно, получу повышение, если стану более эффективным в бою. Что, по-вашему, я должен изучать?"</t>
+«Командир, я... Ну, вообще-то я немного заблудился. Я здесь уже некоторое время, и я хотел бы внести улучшения на поле боя.» - {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} у кучи.
+«Может быть, если бы я мог сделать что-то больше, чем просто нажимать на гашетку моего LRM, я мог бы больше убить. Я, э-э...» - {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. «Мои родители зависят от денег, которые я им посылаю, и я знаю, что смогу добиться большего успеха и, возможно, получу повышение, если стану более эффективным в бою. Что, по-вашему, я должен изучать?"</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.Description.Name</t>
@@ -427,17 +399,13 @@
   </si>
   <si>
     <t xml:space="preserve">"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible."
- You do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} the passage aloud. "Procrastination is opportunity's natural assassin.."
- Slapping {TGT_MW.Callsign} on the back, "You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. "
----
-"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible."
 You do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} the passage aloud. "Procrastination is opportunity's natural assassin.."
 Slapping {TGT_MW.Callsign} on the back, "You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. "</t>
   </si>
   <si>
     <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»
- Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} отрывок вслух. "Прокрастинация - естественный убийца возможностей..»
- Похлопав {TGT_MW.Callsign} по спине, "Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки."</t>
+Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} отрывок вслух. "Прокрастинация - естественный убийца возможностей..»
+Похлопав {TGT_MW.Callsign} по спине, "Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки."</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.outcome_0_0.Options0.0.Name</t>
@@ -471,14 +439,11 @@
   </si>
   <si>
     <t xml:space="preserve">"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books."
- Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.
----
-"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books."
 Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.</t>
   </si>
   <si>
     <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»
- Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
+Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.outcome_1_0.Options1.0.Name</t>
@@ -518,17 +483,13 @@
   </si>
   <si>
     <t xml:space="preserve">"On a combat drop, you're only as good as your weapons. When you're in the middle of a fight, you need to know the capabilities—and the limitations—of whatever 'Mech you're piloting."
- You do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. "Here, start with the tech behind Heat Sinks. Knowing how to push your 'Mech's limits will prove invaluable in every drop I send you on."
- [[TGT_MW,{TGT_MW.Callsign}]] furrows {TGT_MW.DET} brow and bends low over the detailed treatise, already engrossed in the material.
----
-"On a combat drop, you're only as good as your weapons. When you're in the middle of a fight, you need to know the capabilities—and the limitations—of whatever 'Mech you're piloting."
 You do a quick search on one of the computers then flip it around for {TGT_MW.DET} to see. "Here, start with the tech behind Heat Sinks. Knowing how to push your 'Mech's limits will prove invaluable in every drop I send you on."
 [[TGT_MW,{TGT_MW.Callsign}]] furrows {TGT_MW.DET} brow and bends low over the detailed treatise, already engrossed in the material.</t>
   </si>
   <si>
     <t xml:space="preserve">«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»
- Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда да начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»
- [[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом.</t>
+Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда да начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»
+[[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом.</t>
   </si>
   <si>
     <t>event_mw_libraryLostech.outcome_0_0.Options0.0.Name</t>
@@ -550,14 +511,11 @@
   </si>
   <si>
     <t xml:space="preserve">"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books."
- Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.
----
-"I have plenty of people who can pull a trigger [[TGT_MW,{TGT_MW.Callsign}]]. What I need are more MechWarriors that can see the big picture on the battlefield and respond to it quickly. Gaining proper positioning is key to taking down the enemy as fast as possible. For that you will need more practice in the simulators, not the books."
 Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.</t>
   </si>
   <si>
     <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»
-  Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
+Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
   </si>
   <si>
     <t>event_mw_libraryLostech.outcome_1_0.Options1.0.Name</t>
@@ -574,17 +532,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -599,11 +552,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -898,27 +850,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P19:P20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="82" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -931,6 +887,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -942,6 +901,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -953,16 +915,22 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -975,6 +943,9 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -986,6 +957,9 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -997,16 +971,22 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1019,16 +999,22 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1041,16 +1027,22 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1063,6 +1055,9 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1074,6 +1069,9 @@
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1085,16 +1083,22 @@
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1107,6 +1111,9 @@
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1118,6 +1125,9 @@
       <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1129,6 +1139,9 @@
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1140,6 +1153,9 @@
       <c r="C21" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -1151,16 +1167,22 @@
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1173,6 +1195,9 @@
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1184,6 +1209,9 @@
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1195,16 +1223,22 @@
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1217,6 +1251,9 @@
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1228,6 +1265,9 @@
       <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1239,6 +1279,9 @@
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1250,6 +1293,9 @@
       <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1261,16 +1307,22 @@
       <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" s="3" customFormat="1">
-      <c r="A33" s="3" t="s">
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -1283,6 +1335,9 @@
       <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -1294,6 +1349,9 @@
       <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -1305,16 +1363,22 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1327,6 +1391,9 @@
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -1338,6 +1405,9 @@
       <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -1349,6 +1419,9 @@
       <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -1360,6 +1433,9 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1371,16 +1447,22 @@
       <c r="C42" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -1393,6 +1475,9 @@
       <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -1404,6 +1489,9 @@
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -1415,16 +1503,22 @@
       <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -1437,6 +1531,9 @@
       <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -1448,6 +1545,9 @@
       <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -1459,6 +1559,9 @@
       <c r="C50" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -1470,6 +1573,9 @@
       <c r="C51" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -1481,16 +1587,22 @@
       <c r="C52" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" s="3" customFormat="1">
-      <c r="A53" s="3" t="s">
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E53" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
@@ -1503,6 +1615,9 @@
       <c r="C54" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -1514,6 +1629,9 @@
       <c r="C55" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -1525,16 +1643,22 @@
       <c r="C56" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E57" s="2">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
@@ -1547,6 +1671,9 @@
       <c r="C58" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -1558,6 +1685,9 @@
       <c r="C59" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -1569,6 +1699,9 @@
       <c r="C60" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -1580,6 +1713,9 @@
       <c r="C61" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -1591,16 +1727,22 @@
       <c r="C62" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="E63" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="64">
@@ -1613,6 +1755,9 @@
       <c r="C64" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -1624,6 +1769,9 @@
       <c r="C65" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -1635,16 +1783,22 @@
       <c r="C66" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="E67" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
@@ -1657,6 +1811,9 @@
       <c r="C68" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -1668,6 +1825,9 @@
       <c r="C69" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -1679,16 +1839,22 @@
       <c r="C70" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" s="3" customFormat="1">
-      <c r="A71" s="3" t="s">
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="E71" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="72">
@@ -1701,16 +1867,22 @@
       <c r="C72" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="E73" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -1723,6 +1895,9 @@
       <c r="C74" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -1734,6 +1909,9 @@
       <c r="C75" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -1745,16 +1923,22 @@
       <c r="C76" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" s="3" customFormat="1">
-      <c r="A77" s="3" t="s">
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="E77" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
@@ -1767,6 +1951,9 @@
       <c r="C78" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -1778,6 +1965,9 @@
       <c r="C79" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -1789,16 +1979,22 @@
       <c r="C80" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="81" s="3" customFormat="1">
-      <c r="A81" s="3" t="s">
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="E81" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="82">
@@ -1810,6 +2006,9 @@
       </c>
       <c r="C82" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="E82" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -103,8 +103,8 @@
 "Commander, thanks for letting me participate in the endurance competition!" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. "I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."</t>
   </si>
   <si>
-    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите {TGT_MW.Obj} в столовой, потчующего слушателей рассказами о гонке.
-«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} с энтузиазмом. «Я не выиграл, но хотя бы выступил неплохо. Эти местные жители, вау, у них бесконечная выносливость! Мы держались на равных какое-то время, но потом я отстал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
+    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите {TGT_MW.Obj} в столовой, кормящего слушателей рассказами о гонке.
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот {TGT_MW.Subj} с энтузиазмом. «Без победы, но хотя бы неплохое участие. Эти местные жители, вау, у них бесконечная выносливость! Мы держались на равных какое-то время, но потом я отстал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
@@ -125,7 +125,7 @@
   </si>
   <si>
     <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы находите {TGT_MW.Obj} в столовой, с рукой в гипсе, угощающего слушателей рассказами о дерзких поступках.
-«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says}, поддерживая сломанную конечность.
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - {TGT_MW.Subj} говорит, поддерживая сломанную конечность.
 «Эти местные жители,- ух! - у них бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге я устал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
   </si>
   <si>
@@ -366,9 +366,9 @@
 "Maybe if I could do more than just pull the trigger on my LRM, I might get more kills. I, uh…" {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. "My folks depend on the money I send them, and I know I can do better and possibly get a raise if I become more efficient in battle. What do &lt;i&gt;you&lt;/i&gt; think I should study?"</t>
   </si>
   <si>
-    <t xml:space="preserve">Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW, {TGT_MW.Callsign}]] с кучей печатных материалов, чипами головида и датападами.
-«Командир, я... Ну, вообще-то я немного заблудился. Я здесь уже некоторое время, и я хотел бы внести улучшения на поле боя.» - {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:gesture|Default:gestures} у кучи.
-«Может быть, если бы я мог сделать что-то больше, чем просто нажимать на гашетку моего LRM, я мог бы больше убить. Я, э-э...» - {TGT_MW.SUBJ} {TGT_MW.Gender?NonBinary:hesitate|Default:hesitates}. «Мои родители зависят от денег, которые я им посылаю, и я знаю, что смогу добиться большего успеха и, возможно, получу повышение, если стану более эффективным в бою. Что, по-вашему, я должен изучать?"</t>
+    <t xml:space="preserve">Осматривая библиотеку &lt;i&gt;«Арго»&lt;/i&gt;, вы обнаруживаете [[TGT_MW,{TGT_MW.Callsign}]] с кучей печатных материалов, головид-картами и датападами.
+"Командир, я... в общем, я не знаю, что делать. Я здесь уже довольно давно... и хочу приносить больше пользы на поле боя", - сказал мехвоин, указывая на стопку книг.
+"Может быть, если бы можно было делать что-то большее, чем просто жать на гашетку, это бы пошло всем на пользу. То есть я, э-э...",- заминаясь, пилот выпалил - "Мои родные зависят от денег, что я им высылаю, а я знаю, что могу показать себя лучше и может быть - получить прибавку, если буду действовать более эффективно в бою. Что, по-вашему, мне нужно поизучать?"</t>
   </si>
   <si>
     <t>event_mw_libraryAssassin.Description.Name</t>
@@ -403,8 +403,8 @@
 Slapping {TGT_MW.Callsign} on the back, "You will need to forget some of your past experiences and concentrate on these new techniques. Even then there will probably be a need to make repeat visits to refresh your new skills. "</t>
   </si>
   <si>
-    <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»
-Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} {TGT_MW.Gender?NonBinary:read|Default:reads} отрывок вслух. "Прокрастинация - естественный убийца возможностей..»
+    <t xml:space="preserve">«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее.»
+Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. {TGT_MW.SUBJ_C} читает отрывок вслух. "Прокрастинация - естественный убийца возможностей..»
 Похлопав {TGT_MW.Callsign} по спине, "Вам нужно будет забыть некоторый прошлый ваш опыт и сосредоточиться на этих новых техниках. Даже тогда, вероятно, возникнет необходимость в повторных визитах, чтобы освежить ваши новые навыки."</t>
   </si>
   <si>
@@ -442,7 +442,7 @@
 Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.</t>
   </si>
   <si>
-    <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»
+    <t xml:space="preserve">«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики в тренажерах, а не в книгах.»
 Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
   </si>
   <si>
@@ -488,7 +488,7 @@
   </si>
   <si>
     <t xml:space="preserve">«На боевой высадке ты хорош ровно настолько, насколько хорошо твоё оружие. Когда вы находитесь в середине боя, вам нужно знать возможности—и ограничения—любого меха, которым вы управляете.»
-Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда да начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»
+Вы выполняете быстрый поиск на одном из компьютеров, а затем переворачиваете его, чтобы увидеть {TGT_MW.DET}. «Отсюда начнем со знаний, лежащих в основе теплоотводов. Познав пути расширения пределов своего меха да будешь ты неоценим в каждом мире, куда посылаю тебя.»
 [[TGT_MW,{TGT_MW.Callsign}]] хмурит брови {TGT_MW.DET} и низко склоняется над подробным трактатом, уже поглощенный материалом.</t>
   </si>
   <si>
@@ -514,7 +514,7 @@
 Taking your advice {TGT_MW.SUBJ_C} goes to the simulators and gains experience.</t>
   </si>
   <si>
-    <t xml:space="preserve">«У меня есть много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»
+    <t xml:space="preserve">«У меня много людей, которые могут нажать на спусковой крючок [[TGT_MW, {TGT_MW.Callsign}]]. Что мне нужно, так это больше мехвоинов, которые могут видеть общую картину на поле боя и быстро реагировать на нее. Правильное позиционирование - это ключ к тому, чтобы уничтожить врага как можно быстрее. Для этого вам понадобится больше практики на тренажерах, а не в книгах.»
 Следуя вашим советам, {TGT_MW.SUBJ_C} идет на тренажеры и набирается опыта.</t>
   </si>
   <si>
@@ -552,7 +552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -852,15 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="82" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -870,7 +871,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -884,7 +885,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -898,7 +899,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -912,7 +913,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -926,7 +927,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -940,7 +941,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -954,7 +955,7 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -968,7 +969,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
@@ -982,7 +983,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2">
@@ -996,7 +997,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2">
@@ -1010,7 +1011,7 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2">
@@ -1024,7 +1025,7 @@
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2">
@@ -1038,7 +1039,7 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2">
@@ -1052,7 +1053,7 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2">
@@ -1066,7 +1067,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2">
@@ -1080,7 +1081,7 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2">
@@ -1094,7 +1095,7 @@
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2">
@@ -1108,7 +1109,7 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2">
@@ -1122,7 +1123,7 @@
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2">
@@ -1136,7 +1137,7 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="2">
@@ -1150,7 +1151,7 @@
       <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2">
@@ -1164,7 +1165,7 @@
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="2">
@@ -1178,7 +1179,7 @@
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="2">
@@ -1192,7 +1193,7 @@
       <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="2">
@@ -1206,7 +1207,7 @@
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="2">
@@ -1220,7 +1221,7 @@
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="2">
@@ -1234,7 +1235,7 @@
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="2">
@@ -1248,7 +1249,7 @@
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2">
@@ -1262,7 +1263,7 @@
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="2">
@@ -1276,7 +1277,7 @@
       <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="2">
@@ -1290,7 +1291,7 @@
       <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="2">
@@ -1304,7 +1305,7 @@
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="2">
@@ -1318,7 +1319,7 @@
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="2">
@@ -1332,7 +1333,7 @@
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="2">
@@ -1346,7 +1347,7 @@
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="2">
@@ -1360,7 +1361,7 @@
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="2">
@@ -1374,7 +1375,7 @@
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="2">
@@ -1388,7 +1389,7 @@
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="2">
@@ -1402,7 +1403,7 @@
       <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="2">
@@ -1416,7 +1417,7 @@
       <c r="B40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2">
@@ -1430,7 +1431,7 @@
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="2">
@@ -1444,7 +1445,7 @@
       <c r="B42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="2">
@@ -1458,7 +1459,7 @@
       <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="2">
@@ -1472,7 +1473,7 @@
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="2">
@@ -1486,7 +1487,7 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="2">
@@ -1500,7 +1501,7 @@
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="2">
@@ -1514,7 +1515,7 @@
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E47" s="2">
@@ -1528,7 +1529,7 @@
       <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="2">
@@ -1542,7 +1543,7 @@
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E49" s="2">
@@ -1556,7 +1557,7 @@
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="2">
@@ -1570,7 +1571,7 @@
       <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="2">
@@ -1584,7 +1585,7 @@
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="2">
@@ -1598,7 +1599,7 @@
       <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="2">
@@ -1612,7 +1613,7 @@
       <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="2">
@@ -1626,7 +1627,7 @@
       <c r="B55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="2">
@@ -1640,7 +1641,7 @@
       <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E56" s="2">
@@ -1654,7 +1655,7 @@
       <c r="B57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E57" s="2">
@@ -1668,7 +1669,7 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="2">
@@ -1682,7 +1683,7 @@
       <c r="B59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2">
@@ -1696,7 +1697,7 @@
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="2">
@@ -1710,7 +1711,7 @@
       <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="2">
@@ -1724,7 +1725,7 @@
       <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2">
@@ -1738,7 +1739,7 @@
       <c r="B63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E63" s="2">
@@ -1752,7 +1753,7 @@
       <c r="B64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E64" s="2">
@@ -1766,7 +1767,7 @@
       <c r="B65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E65" s="2">
@@ -1780,7 +1781,7 @@
       <c r="B66" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E66" s="2">
@@ -1794,7 +1795,7 @@
       <c r="B67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E67" s="2">
@@ -1808,7 +1809,7 @@
       <c r="B68" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E68" s="2">
@@ -1822,7 +1823,7 @@
       <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E69" s="2">
@@ -1836,7 +1837,7 @@
       <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E70" s="2">
@@ -1850,7 +1851,7 @@
       <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E71" s="2">
@@ -1864,7 +1865,7 @@
       <c r="B72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E72" s="2">
@@ -1878,7 +1879,7 @@
       <c r="B73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E73" s="2">
@@ -1892,7 +1893,7 @@
       <c r="B74" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E74" s="2">
@@ -1906,7 +1907,7 @@
       <c r="B75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E75" s="2">
@@ -1920,7 +1921,7 @@
       <c r="B76" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E76" s="2">
@@ -1934,7 +1935,7 @@
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E77" s="2">
@@ -1948,7 +1949,7 @@
       <c r="B78" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E78" s="2">
@@ -1962,7 +1963,7 @@
       <c r="B79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E79" s="2">
@@ -1976,7 +1977,7 @@
       <c r="B80" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E80" s="2">
@@ -1990,7 +1991,7 @@
       <c r="B81" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E81" s="2">
@@ -2004,7 +2005,7 @@
       <c r="B82" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E82" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -854,14 +854,14 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="82" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
